--- a/Work/data/irregular_contracts/whitelist.xlsx
+++ b/Work/data/irregular_contracts/whitelist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e231ca99f5b3f71f/work/00产园数字化/00数据治理/合同规范性检查/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levin/workspace/git-repositories/anaconda/study-pandas-tutorials/Work/data/irregular_contracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F36317-86E9-5A4A-87B8-B871CF6F8DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84938332-0B52-CA47-B637-3F2D3E4A4898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1500" windowWidth="27440" windowHeight="15520" xr2:uid="{2586D083-F5E0-D74A-96FE-0BAAF84BB202}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>合同编号</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>tyzx-2022-02-0181</t>
+  </si>
+  <si>
+    <t>科技园YX-Z-[2022]006</t>
   </si>
 </sst>
 </file>
@@ -455,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4FE57B-0F32-7C47-9790-5A6552A22B77}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17">
@@ -506,6 +509,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work/data/irregular_contracts/whitelist.xlsx
+++ b/Work/data/irregular_contracts/whitelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levin/workspace/git-repositories/anaconda/study-pandas-tutorials/Work/data/irregular_contracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84938332-0B52-CA47-B637-3F2D3E4A4898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DA6433-FC94-4640-8DF1-AE1DE2E7AA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1500" windowWidth="27440" windowHeight="15520" xr2:uid="{2586D083-F5E0-D74A-96FE-0BAAF84BB202}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>合同编号</t>
-  </si>
-  <si>
     <t>qsnhdzx-2022-02-0066</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>科技园YX-Z-[2022]006</t>
+  </si>
+  <si>
+    <t>contract_no</t>
   </si>
 </sst>
 </file>
@@ -460,9 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4FE57B-0F32-7C47-9790-5A6552A22B77}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -471,47 +469,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Work/data/irregular_contracts/whitelist.xlsx
+++ b/Work/data/irregular_contracts/whitelist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levin/workspace/git-repositories/anaconda/study-pandas-tutorials/Work/data/irregular_contracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DA6433-FC94-4640-8DF1-AE1DE2E7AA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A56522-F2A3-5149-8E6B-5063FC946985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1500" windowWidth="27440" windowHeight="15520" xr2:uid="{2586D083-F5E0-D74A-96FE-0BAAF84BB202}"/>
   </bookViews>
@@ -35,31 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>qsnhdzx-2022-02-0066</t>
-  </si>
-  <si>
-    <t>qsnhdzx-2022-02-0062</t>
-  </si>
-  <si>
-    <t>qsnhdzx-2022-02-0064</t>
-  </si>
-  <si>
-    <t>fhjyAz-2022-02-0017</t>
-  </si>
-  <si>
-    <t>tyzx-2022-01-0179</t>
-  </si>
-  <si>
-    <t>tyzx-2022-01-0169</t>
-  </si>
-  <si>
-    <t>tyzx-2022-02-0181</t>
-  </si>
-  <si>
-    <t>科技园YX-Z-[2022]006</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>contract_no</t>
   </si>
@@ -68,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,13 +76,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,15 +102,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -458,9 +424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4FE57B-0F32-7C47-9790-5A6552A22B77}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -469,47 +437,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17">
-      <c r="A2" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="17">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="17">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="17">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="17">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
